--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83088280-E58E-47BB-98FC-701AF0E4C7D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E436DEE5-B054-4923-B559-E300F2CB1E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="英语" sheetId="13" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>1天10分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,14 +47,6 @@
   </si>
   <si>
     <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -112,23 +104,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二叉树节点的删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>线索化二叉树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遍历线索化二叉树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大顶堆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小顶堆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -233,6 +209,26 @@
   </si>
   <si>
     <t>任务项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/9/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加、删除节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大顶堆、小顶堆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -240,7 +236,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +248,15 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -273,10 +278,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -287,11 +295,43 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="解释性文本" xfId="1" builtinId="53"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -321,13 +361,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1BFC520-1BC9-4D48-866D-F7FB0477E566}" name="表1" displayName="表1" ref="A1:E28" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:E28" xr:uid="{38A52E58-7077-40ED-A0A4-52DE944EDB68}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1BFC520-1BC9-4D48-866D-F7FB0477E566}" name="表1" displayName="表1" ref="A1:F24" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:F24" xr:uid="{38A52E58-7077-40ED-A0A4-52DE944EDB68}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{42E10505-0471-48CC-8365-358BDC44009F}" name="NO"/>
-    <tableColumn id="2" xr3:uid="{7137E419-923A-430E-B5FD-B830059637FF}" name="计划"/>
-    <tableColumn id="6" xr3:uid="{071DCAFD-0806-44A2-84D5-73C0A41D7E80}" name="时长(分钟)"/>
-    <tableColumn id="3" xr3:uid="{DCF98B81-4D25-4835-B7A2-FA352CD8BD8A}" name="时间" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{7137E419-923A-430E-B5FD-B830059637FF}" name="任务项" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{071DCAFD-0806-44A2-84D5-73C0A41D7E80}" name="时长(分钟)" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{BAD42728-0956-4D88-BB40-84294B129381}" name="开始时间" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DCF98B81-4D25-4835-B7A2-FA352CD8BD8A}" name="结束时间" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{8A753512-5052-4D27-8CED-674A14DDF9F3}" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -335,13 +376,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6170E41-78B9-4B41-9C20-17D2EE76D54F}" name="表2" displayName="表2" ref="A1:E11" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:E11" xr:uid="{306A94E6-B981-4F12-89C2-38F45ADE38CF}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{02FA134E-4EE3-456E-AE7F-DE12FABBA6EF}" name="NO" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6170E41-78B9-4B41-9C20-17D2EE76D54F}" name="表2" displayName="表2" ref="A1:F11" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:F11" xr:uid="{306A94E6-B981-4F12-89C2-38F45ADE38CF}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{02FA134E-4EE3-456E-AE7F-DE12FABBA6EF}" name="NO" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{DB5DA9FD-000E-48F4-9582-82311D546D39}" name="任务项"/>
-    <tableColumn id="3" xr3:uid="{737A3EEC-81A9-4D82-8DDC-26A0F773F1DA}" name="时长(分钟)" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{50084998-C2B3-459E-A185-D51DC874A982}" name="时间"/>
+    <tableColumn id="3" xr3:uid="{737A3EEC-81A9-4D82-8DDC-26A0F773F1DA}" name="时长(分钟)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{65122A67-1943-4D0C-B44B-DCAA9A7DE378}" name="开始时间" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{50084998-C2B3-459E-A185-D51DC874A982}" name="结束时间"/>
     <tableColumn id="5" xr3:uid="{1AF46B94-A650-4E1A-80C0-C45BB36B23F5}" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -617,9 +659,9 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -632,269 +674,363 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B64D650-92A1-4AEC-9E38-2C44AED4851B}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="24.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7">
+        <v>43957</v>
+      </c>
+      <c r="E2" s="7">
+        <v>43957</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9">
+        <v>43959</v>
+      </c>
+      <c r="E3" s="9">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
-        <v>43957</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" s="10">
+        <v>50</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
-        <v>43958</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" s="10">
+        <v>71</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" s="10">
+        <v>40</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C7" s="10">
+        <v>35</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C8" s="10">
+        <v>40</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C9" s="10">
+        <v>70</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9">
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C10" s="10">
+        <v>40</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3">
-        <v>43986</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C11" s="10">
+        <v>85</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="C12" s="10">
+        <v>67</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C13" s="10">
+        <v>88</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>15</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C14" s="10">
+        <v>62</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>18</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C15" s="10">
+        <v>280</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>19</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" s="10">
+        <v>110</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>20</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" s="10">
+        <v>80</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>21</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18" s="10">
+        <v>27</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>22</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" s="10">
+        <v>45</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>23</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="C20" s="10">
+        <v>140</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>24</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C21" s="10">
+        <v>30</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>25</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C22" s="10">
+        <v>140</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>26</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C23" s="10">
+        <v>65</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>27</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
+      <c r="C24" s="10">
+        <v>470</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -909,146 +1045,209 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998D22ED-3982-44C1-AB93-8B6E479E1499}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+        <v>44</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43960</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="3">
+        <v>43961</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="3">
+        <v>43965</v>
+      </c>
+      <c r="E5" s="3">
+        <v>43968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <v>43969</v>
+      </c>
+      <c r="E6" s="3">
+        <v>43972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="3">
+        <v>43973</v>
+      </c>
+      <c r="E7" s="3">
+        <v>43976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="3">
+        <v>43977</v>
+      </c>
+      <c r="E8" s="3">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <v>43981</v>
+      </c>
+      <c r="E9" s="3">
+        <v>43984</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="3">
+        <v>43985</v>
+      </c>
+      <c r="E10" s="3">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2">
         <v>75</v>
+      </c>
+      <c r="D11" s="3">
+        <v>43989</v>
+      </c>
+      <c r="E11" s="3">
+        <v>43992</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1057,9 +1256,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A4B0DF-959B-409E-A4F4-152B7BF326A4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1074,9 +1273,9 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1098,7 +1297,7 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1113,7 +1312,7 @@
       <selection activeCell="L33" sqref="L33:L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1128,7 +1327,7 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E436DEE5-B054-4923-B559-E300F2CB1E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815F4679-193F-4912-9F0C-761C58FCB5C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="英语" sheetId="13" r:id="rId1"/>
@@ -32,17 +32,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>1天10分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2个周1章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8个周</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -229,6 +221,42 @@
   </si>
   <si>
     <t>大顶堆、小顶堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时长(页)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常控制流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据链路层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,7 +312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -314,12 +342,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="解释性文本" xfId="1" builtinId="53"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="19">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -336,6 +367,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -343,6 +386,24 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -361,14 +422,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1BFC520-1BC9-4D48-866D-F7FB0477E566}" name="表1" displayName="表1" ref="A1:F24" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1BFC520-1BC9-4D48-866D-F7FB0477E566}" name="表1" displayName="表1" ref="A1:F24" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="A1:F24" xr:uid="{38A52E58-7077-40ED-A0A4-52DE944EDB68}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{42E10505-0471-48CC-8365-358BDC44009F}" name="NO"/>
-    <tableColumn id="2" xr3:uid="{7137E419-923A-430E-B5FD-B830059637FF}" name="任务项" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{071DCAFD-0806-44A2-84D5-73C0A41D7E80}" name="时长(分钟)" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{BAD42728-0956-4D88-BB40-84294B129381}" name="开始时间" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{DCF98B81-4D25-4835-B7A2-FA352CD8BD8A}" name="结束时间" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{7137E419-923A-430E-B5FD-B830059637FF}" name="任务项" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{071DCAFD-0806-44A2-84D5-73C0A41D7E80}" name="时长(分钟)" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{BAD42728-0956-4D88-BB40-84294B129381}" name="开始时间" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{DCF98B81-4D25-4835-B7A2-FA352CD8BD8A}" name="结束时间" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{8A753512-5052-4D27-8CED-674A14DDF9F3}" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -376,15 +437,45 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6170E41-78B9-4B41-9C20-17D2EE76D54F}" name="表2" displayName="表2" ref="A1:F11" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6170E41-78B9-4B41-9C20-17D2EE76D54F}" name="表2" displayName="表2" ref="A1:F11" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:F11" xr:uid="{306A94E6-B981-4F12-89C2-38F45ADE38CF}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{02FA134E-4EE3-456E-AE7F-DE12FABBA6EF}" name="NO" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{02FA134E-4EE3-456E-AE7F-DE12FABBA6EF}" name="NO" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{DB5DA9FD-000E-48F4-9582-82311D546D39}" name="任务项"/>
-    <tableColumn id="3" xr3:uid="{737A3EEC-81A9-4D82-8DDC-26A0F773F1DA}" name="时长(分钟)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{65122A67-1943-4D0C-B44B-DCAA9A7DE378}" name="开始时间" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{737A3EEC-81A9-4D82-8DDC-26A0F773F1DA}" name="时长(分钟)" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{65122A67-1943-4D0C-B44B-DCAA9A7DE378}" name="开始时间" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{50084998-C2B3-459E-A185-D51DC874A982}" name="结束时间"/>
     <tableColumn id="5" xr3:uid="{1AF46B94-A650-4E1A-80C0-C45BB36B23F5}" name="备注"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3076E753-B171-4F47-B639-3BA3103C0D5C}" name="表1_4" displayName="表1_4" ref="A1:F4" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:F4" xr:uid="{B0523719-AE34-4EA3-86AA-5E5ABFE60D80}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{3BB8C69C-D794-4586-A1F1-5CA680CDF5A8}" name="NO"/>
+    <tableColumn id="2" xr3:uid="{EDC9F5BC-AC9B-41A5-BE91-F9AAD585AAFC}" name="任务项" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{75583D30-C1C4-4FAB-A156-E53C199D8522}" name="时长(页)" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{E1FEB4FF-EA8D-406A-BCBB-6BAA8BA8B7B7}" name="开始时间" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{5CF76904-FC73-4B9A-B625-11BB0803FDF9}" name="结束时间" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{5944819B-7B84-43A7-AFE4-E0514D9E844C}" name="备注"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{51DFE0C6-45DE-4C48-8BB7-08ED9591B511}" name="表1_45" displayName="表1_45" ref="A1:F5" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:F5" xr:uid="{6771B110-0F0E-4035-96B1-3BE85C7F19D3}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{4BE5476C-A082-42B3-85EF-36D4162A8236}" name="NO"/>
+    <tableColumn id="2" xr3:uid="{CA1CE17F-99E2-4CEC-91BC-81D2726C39B5}" name="任务项" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{34B16FC8-7D02-4CB5-8B8F-26761E345343}" name="时长(页)" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{AFEDB53D-159E-4E52-B555-3C6C005A10F6}" name="开始时间" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{C8137602-E92D-4C74-9AB3-EE540B0A1914}" name="结束时间" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{60A91B2A-AAD2-4F03-80E6-0D908C33F9B3}" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -655,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5C6C0E-1EA3-43DF-AD84-3EC167724168}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -676,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B64D650-92A1-4AEC-9E38-2C44AED4851B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="A1:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -692,22 +783,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -715,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7">
@@ -727,96 +818,119 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9">
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7">
         <v>43959</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>43960</v>
       </c>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="10">
         <v>50</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="9">
+        <v>43961</v>
+      </c>
+      <c r="E4" s="9">
+        <v>43965</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="10">
         <v>71</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="9">
+        <v>43966</v>
+      </c>
+      <c r="E5" s="9">
+        <v>43971</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="10">
         <v>40</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="D6" s="9">
+        <v>43972</v>
+      </c>
+      <c r="E6" s="9">
+        <v>43975</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10">
         <v>35</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="D7" s="9">
+        <v>43976</v>
+      </c>
+      <c r="E7" s="9">
+        <v>43979</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="10">
         <v>40</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="D8" s="9">
+        <v>43980</v>
+      </c>
+      <c r="E8" s="9">
+        <v>43983</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="10">
         <v>70</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="9">
+        <v>43984</v>
+      </c>
       <c r="E9" s="9">
         <v>43997</v>
       </c>
@@ -826,12 +940,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="10">
         <v>40</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="9">
+        <v>43998</v>
+      </c>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
@@ -839,7 +955,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="10">
         <v>85</v>
@@ -847,7 +963,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -855,7 +971,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="10">
         <v>67</v>
@@ -863,7 +979,7 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -871,7 +987,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="10">
         <v>88</v>
@@ -884,7 +1000,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="10">
         <v>62</v>
@@ -892,7 +1008,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
@@ -900,15 +1016,17 @@
         <v>18</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="10">
         <v>280</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="E15" s="9">
+        <v>44043</v>
+      </c>
       <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -916,12 +1034,14 @@
         <v>19</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="10">
         <v>110</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="9">
+        <v>44044</v>
+      </c>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -929,7 +1049,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="10">
         <v>80</v>
@@ -942,7 +1062,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" s="10">
         <v>27</v>
@@ -955,7 +1075,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="10">
         <v>45</v>
@@ -968,7 +1088,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="10">
         <v>140</v>
@@ -976,7 +1096,7 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -984,7 +1104,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="10">
         <v>30</v>
@@ -997,7 +1117,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" s="10">
         <v>140</v>
@@ -1010,27 +1130,31 @@
         <v>26</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" s="10">
         <v>65</v>
       </c>
       <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="E23" s="9">
+        <v>44074</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>27</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="10">
         <v>470</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="9">
+        <v>44075</v>
+      </c>
       <c r="E24" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1062,22 +1186,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1085,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1097,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3">
         <v>43960</v>
@@ -1111,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2">
         <v>92</v>
@@ -1128,7 +1252,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2">
         <v>65</v>
@@ -1145,7 +1269,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2">
         <v>58</v>
@@ -1162,7 +1286,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2">
         <v>52</v>
@@ -1179,7 +1303,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2">
         <v>85</v>
@@ -1196,7 +1320,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2">
         <v>72</v>
@@ -1213,7 +1337,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2">
         <v>63</v>
@@ -1230,7 +1354,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2">
         <v>75</v>
@@ -1254,38 +1378,201 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A4B0DF-959B-409E-A4F4-152B7BF326A4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="A1:F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="10">
+        <v>36</v>
+      </c>
+      <c r="D2" s="9">
+        <v>43961</v>
+      </c>
+      <c r="E2" s="9">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="10">
+        <v>56</v>
+      </c>
+      <c r="D3" s="9">
+        <v>43993</v>
+      </c>
+      <c r="E3" s="9">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="10">
+        <v>85</v>
+      </c>
+      <c r="D4" s="9">
+        <v>44033</v>
+      </c>
+      <c r="E4" s="9">
+        <v>44074</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E8D379-C1DA-4B9F-8FCE-72CD5BB827E3}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9">
+        <v>43961</v>
+      </c>
+      <c r="E2" s="9">
+        <v>43974</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9">
+        <v>43975</v>
+      </c>
+      <c r="E3" s="9">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9">
+        <v>43993</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9">
+        <v>44013</v>
+      </c>
+      <c r="E5" s="9">
+        <v>44032</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815F4679-193F-4912-9F0C-761C58FCB5C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4A4259-113B-4699-AC61-E8326D1CB531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="英语" sheetId="13" r:id="rId1"/>
@@ -312,7 +312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -344,6 +344,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -746,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5C6C0E-1EA3-43DF-AD84-3EC167724168}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -768,7 +771,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="A1:F24"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1171,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998D22ED-3982-44C1-AB93-8B6E479E1499}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1217,18 +1220,20 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="3">
+      <c r="C3" s="4"/>
+      <c r="D3" s="12">
         <v>43960</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="12">
         <v>43960</v>
       </c>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4A4259-113B-4699-AC61-E8326D1CB531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50839F9-FAD7-4163-B952-569C0BD5F215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="英语" sheetId="13" r:id="rId1"/>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B64D650-92A1-4AEC-9E38-2C44AED4851B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -837,21 +837,22 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>50</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>43961</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>43965</v>
       </c>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
@@ -1174,7 +1175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998D22ED-3982-44C1-AB93-8B6E479E1499}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50839F9-FAD7-4163-B952-569C0BD5F215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8A3A0A-F596-444B-A125-6B2671E21F32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="英语" sheetId="13" r:id="rId1"/>
@@ -34,10 +34,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
-    <t>1天10分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,6 +253,10 @@
   </si>
   <si>
     <t>2020-06-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赖世雄美语从头学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,20 +749,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5C6C0E-1EA3-43DF-AD84-3EC167724168}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -770,7 +769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B64D650-92A1-4AEC-9E38-2C44AED4851B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -786,22 +785,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -809,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7">
@@ -825,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7">
@@ -841,7 +840,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="11">
         <v>50</v>
@@ -859,7 +858,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="10">
         <v>71</v>
@@ -876,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="10">
         <v>40</v>
@@ -893,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="10">
         <v>35</v>
@@ -910,7 +909,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10">
         <v>40</v>
@@ -927,7 +926,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="10">
         <v>70</v>
@@ -944,7 +943,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="10">
         <v>40</v>
@@ -959,7 +958,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="10">
         <v>85</v>
@@ -967,7 +966,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -975,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="10">
         <v>67</v>
@@ -983,7 +982,7 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -991,7 +990,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="10">
         <v>88</v>
@@ -1004,7 +1003,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="10">
         <v>62</v>
@@ -1012,7 +1011,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
@@ -1020,7 +1019,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="10">
         <v>280</v>
@@ -1030,7 +1029,7 @@
         <v>44043</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1038,7 +1037,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="10">
         <v>110</v>
@@ -1053,7 +1052,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="10">
         <v>80</v>
@@ -1066,7 +1065,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="10">
         <v>27</v>
@@ -1079,7 +1078,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="10">
         <v>45</v>
@@ -1092,7 +1091,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="10">
         <v>140</v>
@@ -1100,7 +1099,7 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1108,7 +1107,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="10">
         <v>30</v>
@@ -1121,7 +1120,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="10">
         <v>140</v>
@@ -1134,7 +1133,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="10">
         <v>65</v>
@@ -1149,7 +1148,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="10">
         <v>470</v>
@@ -1158,7 +1157,7 @@
         <v>44075</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1190,22 +1189,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1213,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1225,7 +1224,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="12">
@@ -1241,7 +1240,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2">
         <v>92</v>
@@ -1258,7 +1257,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2">
         <v>65</v>
@@ -1275,7 +1274,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2">
         <v>58</v>
@@ -1292,7 +1291,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2">
         <v>52</v>
@@ -1309,7 +1308,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2">
         <v>85</v>
@@ -1326,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2">
         <v>72</v>
@@ -1343,7 +1342,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2">
         <v>63</v>
@@ -1360,7 +1359,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2">
         <v>75</v>
@@ -1400,22 +1399,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1423,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="10">
         <v>36</v>
@@ -1440,7 +1439,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="10">
         <v>56</v>
@@ -1457,7 +1456,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="10">
         <v>85</v>
@@ -1495,22 +1494,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1518,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="9">
@@ -1533,7 +1532,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="9">
@@ -1548,14 +1547,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="9">
         <v>43993</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1563,7 +1562,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="9">

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8A3A0A-F596-444B-A125-6B2671E21F32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EE2F36-83B0-4DC3-8442-75794234362C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="英语" sheetId="13" r:id="rId1"/>
@@ -749,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5C6C0E-1EA3-43DF-AD84-3EC167724168}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1174,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998D22ED-3982-44C1-AB93-8B6E479E1499}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1236,19 +1236,19 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>92</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="12">
         <v>43961</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="12">
         <v>43964</v>
       </c>
     </row>

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EE2F36-83B0-4DC3-8442-75794234362C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E6D1AA-1836-4C67-BAAB-E71CB323E68C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="22935" windowHeight="11895" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="英语" sheetId="13" r:id="rId1"/>
@@ -770,7 +770,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -854,19 +854,19 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>71</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>43966</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>43971</v>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1253,36 +1253,36 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>65</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="12">
         <v>43965</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="12">
         <v>43968</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>58</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="12">
         <v>43969</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="12">
         <v>43972</v>
       </c>
     </row>

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E6D1AA-1836-4C67-BAAB-E71CB323E68C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAEF111-92F8-4F72-BCBF-05582DF3D6F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="22935" windowHeight="11895" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="22935" windowHeight="11895" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="英语" sheetId="13" r:id="rId1"/>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B64D650-92A1-4AEC-9E38-2C44AED4851B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -871,19 +871,19 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <v>40</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>43972</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>43975</v>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998D22ED-3982-44C1-AB93-8B6E479E1499}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAEF111-92F8-4F72-BCBF-05582DF3D6F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C02981-831B-4869-9C29-21F820E1FB64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="22935" windowHeight="11895" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17280" windowHeight="8970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="英语" sheetId="13" r:id="rId1"/>
@@ -751,9 +751,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -769,21 +769,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B64D650-92A1-4AEC-9E38-2C44AED4851B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -819,7 +819,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -835,7 +835,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -853,7 +853,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -870,7 +870,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -887,7 +887,7 @@
         <v>43975</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -904,7 +904,7 @@
         <v>43979</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -921,7 +921,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -938,7 +938,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -953,7 +953,7 @@
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -969,7 +969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -985,7 +985,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>13</v>
       </c>
@@ -998,7 +998,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>15</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>18</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>19</v>
       </c>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>20</v>
       </c>
@@ -1060,7 +1060,7 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>21</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>22</v>
       </c>
@@ -1086,7 +1086,7 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>23</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>24</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>25</v>
       </c>
@@ -1128,7 +1128,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>26</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>44074</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>27</v>
       </c>
@@ -1174,20 +1174,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998D22ED-3982-44C1-AB93-8B6E479E1499}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1219,7 +1219,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>43968</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1286,24 +1286,25 @@
         <v>43972</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>52</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="12">
         <v>43973</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="12">
         <v>43976</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1337,7 +1338,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1354,7 +1355,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1389,15 +1390,15 @@
       <selection activeCell="F4" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1417,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1434,7 +1435,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1451,7 +1452,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1482,17 +1483,17 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1512,22 +1513,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9">
+      <c r="C2" s="11"/>
+      <c r="D2" s="7">
         <v>43961</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>43974</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1542,7 +1544,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1557,7 +1559,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1589,7 +1591,7 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1604,7 +1606,7 @@
       <selection activeCell="L33" sqref="L33:L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1619,7 +1621,7 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C02981-831B-4869-9C29-21F820E1FB64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA64761-6389-413A-AF59-63CBB3663ADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17280" windowHeight="8970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="英语" sheetId="13" r:id="rId1"/>
@@ -751,9 +751,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -769,21 +769,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B64D650-92A1-4AEC-9E38-2C44AED4851B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -819,7 +819,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -835,7 +835,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -853,7 +853,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -870,7 +870,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -887,24 +887,24 @@
         <v>43975</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="11">
         <v>35</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>43976</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>43979</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -921,7 +921,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -938,7 +938,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -953,7 +953,7 @@
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -969,7 +969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -985,7 +985,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>13</v>
       </c>
@@ -998,7 +998,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>15</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>18</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>19</v>
       </c>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>20</v>
       </c>
@@ -1060,7 +1060,7 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>21</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>22</v>
       </c>
@@ -1086,7 +1086,7 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>23</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>24</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>25</v>
       </c>
@@ -1128,7 +1128,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>26</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>44074</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>27</v>
       </c>
@@ -1174,20 +1174,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998D22ED-3982-44C1-AB93-8B6E479E1499}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1219,7 +1219,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>43968</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>43972</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1390,15 +1390,15 @@
       <selection activeCell="F4" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1486,14 +1486,14 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1591,7 +1591,7 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1606,7 +1606,7 @@
       <selection activeCell="L33" sqref="L33:L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1621,7 +1621,7 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA64761-6389-413A-AF59-63CBB3663ADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC57A6FC-EB1D-4AF4-A248-98096EEEA638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="英语" sheetId="13" r:id="rId1"/>
@@ -751,9 +751,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -770,20 +770,20 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -819,7 +819,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -835,7 +835,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -853,7 +853,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -870,7 +870,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -887,7 +887,7 @@
         <v>43975</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -904,24 +904,24 @@
         <v>43979</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <v>40</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>43980</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>43983</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -938,7 +938,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -953,7 +953,7 @@
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -969,7 +969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -985,7 +985,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>13</v>
       </c>
@@ -998,7 +998,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>15</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>18</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>19</v>
       </c>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>20</v>
       </c>
@@ -1060,7 +1060,7 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>21</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>22</v>
       </c>
@@ -1086,7 +1086,7 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>23</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>24</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>25</v>
       </c>
@@ -1128,7 +1128,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>26</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>44074</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>27</v>
       </c>
@@ -1175,19 +1175,19 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1219,7 +1219,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>43968</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>43972</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1304,24 +1304,24 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>85</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="12">
         <v>43977</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="12">
         <v>43980</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1390,15 +1390,15 @@
       <selection activeCell="F4" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1486,14 +1486,14 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1591,7 +1591,7 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1606,7 +1606,7 @@
       <selection activeCell="L33" sqref="L33:L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1621,7 +1621,7 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC57A6FC-EB1D-4AF4-A248-98096EEEA638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5591F0-A560-444B-B17B-0F4402559B36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="英语" sheetId="13" r:id="rId1"/>
@@ -751,9 +751,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -769,21 +769,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B64D650-92A1-4AEC-9E38-2C44AED4851B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -819,7 +819,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -835,7 +835,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -853,7 +853,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -870,7 +870,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -887,7 +887,7 @@
         <v>43975</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -904,7 +904,7 @@
         <v>43979</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -921,7 +921,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -938,7 +938,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -953,7 +953,7 @@
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -969,7 +969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -985,7 +985,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>13</v>
       </c>
@@ -998,7 +998,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>15</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>18</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>19</v>
       </c>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>20</v>
       </c>
@@ -1060,7 +1060,7 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>21</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>22</v>
       </c>
@@ -1086,7 +1086,7 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>23</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>24</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>25</v>
       </c>
@@ -1128,7 +1128,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>26</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>44074</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>27</v>
       </c>
@@ -1174,20 +1174,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998D22ED-3982-44C1-AB93-8B6E479E1499}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1219,7 +1219,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>43968</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>43972</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1321,24 +1321,24 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>72</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="12">
         <v>43981</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="12">
         <v>43984</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1390,15 +1390,15 @@
       <selection activeCell="F4" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1486,14 +1486,14 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1591,7 +1591,7 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1606,7 +1606,7 @@
       <selection activeCell="L33" sqref="L33:L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1621,7 +1621,7 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5591F0-A560-444B-B17B-0F4402559B36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A693F3A-A8F5-4D2B-8278-DC0C1BBED215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="英语" sheetId="13" r:id="rId1"/>
@@ -751,9 +751,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -773,17 +773,17 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -819,7 +819,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -835,7 +835,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -853,7 +853,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -870,7 +870,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -887,7 +887,7 @@
         <v>43975</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -904,7 +904,7 @@
         <v>43979</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -921,7 +921,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -938,7 +938,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -953,7 +953,7 @@
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -969,7 +969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -985,7 +985,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>13</v>
       </c>
@@ -998,7 +998,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>15</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>18</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>19</v>
       </c>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>20</v>
       </c>
@@ -1060,7 +1060,7 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>21</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>22</v>
       </c>
@@ -1086,7 +1086,7 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>23</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>24</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>25</v>
       </c>
@@ -1128,7 +1128,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>26</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>44074</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>27</v>
       </c>
@@ -1175,19 +1175,19 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1219,7 +1219,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>43968</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>43972</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1338,24 +1338,24 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>63</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="12">
         <v>43985</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="12">
         <v>43988</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1390,15 +1390,15 @@
       <selection activeCell="F4" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1486,14 +1486,14 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1591,7 +1591,7 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1606,7 +1606,7 @@
       <selection activeCell="L33" sqref="L33:L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1621,7 +1621,7 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A693F3A-A8F5-4D2B-8278-DC0C1BBED215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4E3BB3-A937-409D-BBDB-A921008AC681}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="英语" sheetId="13" r:id="rId1"/>
@@ -312,15 +312,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -751,9 +748,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -769,21 +766,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B64D650-92A1-4AEC-9E38-2C44AED4851B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -803,360 +800,380 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7">
+      <c r="C2" s="5"/>
+      <c r="D2" s="6">
         <v>43957</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>43957</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7">
+      <c r="C3" s="5"/>
+      <c r="D3" s="6">
         <v>43959</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>43960</v>
       </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>50</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>43961</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>43965</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>71</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>43966</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>43971</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>40</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>43972</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>43975</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>35</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>43976</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>43979</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>40</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>43980</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>43983</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="10">
         <v>70</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>43984</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <v>43997</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>40</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>43998</v>
       </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="E10" s="8">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>85</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="8">
+        <v>44003</v>
+      </c>
+      <c r="E11" s="8">
+        <v>44012</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>67</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="8">
+        <v>44013</v>
+      </c>
+      <c r="E12" s="8">
+        <v>44017</v>
+      </c>
       <c r="F12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
         <v>13</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>88</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="D13" s="8">
+        <v>44018</v>
+      </c>
+      <c r="E13" s="8">
+        <v>44024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
         <v>15</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>62</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="D14" s="8">
+        <v>44025</v>
+      </c>
+      <c r="E14" s="8">
+        <v>44029</v>
+      </c>
       <c r="F14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+    <row r="15" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
         <v>18</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>280</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9">
+      <c r="D15" s="8">
+        <v>44030</v>
+      </c>
+      <c r="E15" s="8">
         <v>44043</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
         <v>19</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>110</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>44044</v>
       </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
         <v>20</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>80</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
         <v>21</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>27</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
         <v>22</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>45</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
         <v>23</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>140</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
         <v>24</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>30</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
         <v>25</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>140</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
         <v>26</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>65</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="9">
+      <c r="D23" s="9"/>
+      <c r="E23" s="8">
         <v>44074</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
         <v>27</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>470</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>44075</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1175,19 +1192,19 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1207,168 +1224,168 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="12">
+      <c r="C3" s="3"/>
+      <c r="D3" s="11">
         <v>43960</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>43960</v>
       </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>92</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>43961</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>43964</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>65</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>43965</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>43968</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>58</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>43969</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>43972</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>52</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>43973</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>43976</v>
       </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>85</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>43977</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>43980</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>72</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>43981</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>43984</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>63</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>43985</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>43988</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>75</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="11">
         <v>43989</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="11">
         <v>43992</v>
       </c>
     </row>
@@ -1390,15 +1407,15 @@
       <selection activeCell="F4" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1418,54 +1435,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>36</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>43961</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>43992</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>56</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>43993</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>44032</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>85</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>44033</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>44074</v>
       </c>
     </row>
@@ -1486,14 +1503,14 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1513,64 +1530,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="7">
+      <c r="C2" s="10"/>
+      <c r="D2" s="6">
         <v>43961</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>43974</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9">
+      <c r="C3" s="9"/>
+      <c r="D3" s="8">
         <v>43975</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>43992</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9">
+      <c r="C4" s="9"/>
+      <c r="D4" s="8">
         <v>43993</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9">
+      <c r="C5" s="9"/>
+      <c r="D5" s="8">
         <v>44013</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>44032</v>
       </c>
     </row>
@@ -1591,7 +1608,7 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1606,7 +1623,7 @@
       <selection activeCell="L33" sqref="L33:L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1621,7 +1638,7 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4E3BB3-A937-409D-BBDB-A921008AC681}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C777AC76-1E9F-42C8-8C69-A68D9EAD9560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="英语" sheetId="13" r:id="rId1"/>
@@ -748,9 +748,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -766,21 +766,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B64D650-92A1-4AEC-9E38-2C44AED4851B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -816,7 +816,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -832,7 +832,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -850,7 +850,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -867,7 +867,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -884,7 +884,7 @@
         <v>43975</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -901,7 +901,7 @@
         <v>43979</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -918,7 +918,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -935,24 +935,24 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="10">
         <v>40</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>43998</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>44002</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -972,7 +972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -992,7 +992,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>13</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>44024</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>15</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>18</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>19</v>
       </c>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>20</v>
       </c>
@@ -1077,7 +1077,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>21</v>
       </c>
@@ -1090,7 +1090,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>22</v>
       </c>
@@ -1103,7 +1103,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>23</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>24</v>
       </c>
@@ -1132,7 +1132,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>25</v>
       </c>
@@ -1145,7 +1145,7 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>26</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>44074</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>27</v>
       </c>
@@ -1191,20 +1191,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998D22ED-3982-44C1-AB93-8B6E479E1499}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1236,7 +1236,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>43968</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>43972</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1407,15 +1407,15 @@
       <selection activeCell="F4" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1500,17 +1500,17 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1546,22 +1546,22 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8">
+      <c r="C3" s="10"/>
+      <c r="D3" s="6">
         <v>43975</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>43992</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1608,7 +1608,7 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1623,7 +1623,7 @@
       <selection activeCell="L33" sqref="L33:L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1638,7 +1638,7 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C777AC76-1E9F-42C8-8C69-A68D9EAD9560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4CCE65-A3D5-4AC6-BDA3-5755D7049326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="英语" sheetId="13" r:id="rId1"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二叉树的遍历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前序遍历
 中序遍历
 后序遍历</t>
@@ -257,6 +253,10 @@
   </si>
   <si>
     <t>赖世雄美语从头学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的遍历与查找</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -752,7 +752,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B64D650-92A1-4AEC-9E38-2C44AED4851B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -957,7 +957,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C11" s="9">
         <v>85</v>
@@ -969,7 +969,7 @@
         <v>44012</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -977,7 +977,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="9">
         <v>67</v>
@@ -989,7 +989,7 @@
         <v>44017</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="9">
         <v>88</v>
@@ -1014,7 +1014,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="9">
         <v>62</v>
@@ -1026,7 +1026,7 @@
         <v>44029</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
@@ -1034,7 +1034,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="9">
         <v>280</v>
@@ -1046,7 +1046,7 @@
         <v>44043</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1054,7 +1054,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="9">
         <v>110</v>
@@ -1069,7 +1069,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="9">
         <v>80</v>
@@ -1082,7 +1082,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="9">
         <v>27</v>
@@ -1095,7 +1095,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="9">
         <v>45</v>
@@ -1108,7 +1108,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="9">
         <v>140</v>
@@ -1116,7 +1116,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1124,7 +1124,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="9">
         <v>30</v>
@@ -1137,7 +1137,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="9">
         <v>140</v>
@@ -1150,7 +1150,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="9">
         <v>65</v>
@@ -1165,7 +1165,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="9">
         <v>470</v>
@@ -1174,7 +1174,7 @@
         <v>44075</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1209,16 +1209,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1241,7 +1241,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="11">
@@ -1257,7 +1257,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3">
         <v>92</v>
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3">
         <v>65</v>
@@ -1291,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3">
         <v>58</v>
@@ -1308,7 +1308,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3">
         <v>52</v>
@@ -1326,7 +1326,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3">
         <v>85</v>
@@ -1343,7 +1343,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3">
         <v>72</v>
@@ -1360,7 +1360,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3">
         <v>63</v>
@@ -1377,7 +1377,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3">
         <v>75</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="9">
         <v>36</v>
@@ -1457,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="9">
         <v>56</v>
@@ -1474,7 +1474,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="9">
         <v>85</v>
@@ -1515,16 +1515,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="6">
@@ -1551,7 +1551,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="6">
@@ -1566,14 +1566,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="8">
         <v>43993</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1581,7 +1581,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="8">

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4CCE65-A3D5-4AC6-BDA3-5755D7049326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B26007-4087-46C4-A0F4-4899D9F07D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="英语" sheetId="13" r:id="rId1"/>
     <sheet name="数据结构" sheetId="2" r:id="rId2"/>
-    <sheet name="设计模式" sheetId="4" r:id="rId3"/>
+    <sheet name="spring注解" sheetId="14" r:id="rId3"/>
     <sheet name="深入理解计算机系统" sheetId="5" r:id="rId4"/>
     <sheet name="计算机网络" sheetId="8" r:id="rId5"/>
     <sheet name="springboot-cloud" sheetId="10" r:id="rId6"/>
     <sheet name="JVM" sheetId="11" r:id="rId7"/>
     <sheet name="多线程" sheetId="12" r:id="rId8"/>
+    <sheet name="设计模式" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,12 +76,6 @@
   </si>
   <si>
     <t>二叉树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前序遍历
-中序遍历
-后序遍历</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -257,6 +252,115 @@
   </si>
   <si>
     <t>二叉树的遍历与查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configuration、
+Bean、
+ComponentScan、
+TypeFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Scope、
+Lazy-Bean、
+Conditional、
+Import
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean、
+PostConstruct、
+PreDestory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanPostProcessor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Value、
+PropertySource、
+Autowired、
+Qualifier
+Primary
+Resource
+Inject
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法、构造器自动装配
+Aware注入原理
+Profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnableAspectjProxy
+AnnotationAwareAspectjProxyCreator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建AOP代理
+获取拦截器链
+链式调用通知方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声明式事务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BeanFactoryPostProcessor
+BeanDefinationRegisterPostProcessor
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplicationListener
+EventListner
+SmartInitializingSingleton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BeanFactory预准备
+执行BeanFactoryPostProcessor
+注册BeanPostProcesoor
+初始化MessageResource
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化事件派发器、监听器
+创建Bean准备
+创建Bean完成
+容器创建完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servlet3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servlet3.0与spring整合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springmvc整合
+定制与接管Springmvc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servlet3.0异步请求
+返回Callable
+返回deferredResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前序遍历、查找
+中序遍历、查找
+后序遍历、查找</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -312,7 +416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -345,12 +449,39 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="解释性文本" xfId="1" builtinId="53"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="23">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -382,13 +513,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -422,14 +553,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1BFC520-1BC9-4D48-866D-F7FB0477E566}" name="表1" displayName="表1" ref="A1:F24" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1BFC520-1BC9-4D48-866D-F7FB0477E566}" name="表1" displayName="表1" ref="A1:F24" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="A1:F24" xr:uid="{38A52E58-7077-40ED-A0A4-52DE944EDB68}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{42E10505-0471-48CC-8365-358BDC44009F}" name="NO"/>
-    <tableColumn id="2" xr3:uid="{7137E419-923A-430E-B5FD-B830059637FF}" name="任务项" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{071DCAFD-0806-44A2-84D5-73C0A41D7E80}" name="时长(分钟)" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{BAD42728-0956-4D88-BB40-84294B129381}" name="开始时间" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{DCF98B81-4D25-4835-B7A2-FA352CD8BD8A}" name="结束时间" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{7137E419-923A-430E-B5FD-B830059637FF}" name="任务项" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{071DCAFD-0806-44A2-84D5-73C0A41D7E80}" name="时长(分钟)" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{BAD42728-0956-4D88-BB40-84294B129381}" name="开始时间" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{DCF98B81-4D25-4835-B7A2-FA352CD8BD8A}" name="结束时间" dataDxfId="18"/>
     <tableColumn id="4" xr3:uid="{8A753512-5052-4D27-8CED-674A14DDF9F3}" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -437,29 +568,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6170E41-78B9-4B41-9C20-17D2EE76D54F}" name="表2" displayName="表2" ref="A1:F11" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A1:F11" xr:uid="{306A94E6-B981-4F12-89C2-38F45ADE38CF}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{02FA134E-4EE3-456E-AE7F-DE12FABBA6EF}" name="NO" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{DB5DA9FD-000E-48F4-9582-82311D546D39}" name="任务项"/>
-    <tableColumn id="3" xr3:uid="{737A3EEC-81A9-4D82-8DDC-26A0F773F1DA}" name="时长(分钟)" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{65122A67-1943-4D0C-B44B-DCAA9A7DE378}" name="开始时间" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{50084998-C2B3-459E-A185-D51DC874A982}" name="结束时间"/>
-    <tableColumn id="5" xr3:uid="{1AF46B94-A650-4E1A-80C0-C45BB36B23F5}" name="备注"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BD46859F-9AC0-4C6A-B240-10DC847CDA1A}" name="表1_6" displayName="表1_6" ref="A1:E18" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:E18" xr:uid="{C9975E5E-FEFC-4622-AC33-8BC15929292E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{25951C07-3EBE-4620-B1DF-9EAA377F87DC}" name="NO"/>
+    <tableColumn id="2" xr3:uid="{D05E0DEF-2257-4B4A-A120-5B4E9A35FE17}" name="任务项" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{45D71652-2326-42E1-A427-B691608801C0}" name="开始时间" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{05277FD2-2013-41A4-8E46-82178EDD01E3}" name="结束时间" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{C4D10796-6420-4AE0-B8DE-E2FBF8861037}" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3076E753-B171-4F47-B639-3BA3103C0D5C}" name="表1_4" displayName="表1_4" ref="A1:F4" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3076E753-B171-4F47-B639-3BA3103C0D5C}" name="表1_4" displayName="表1_4" ref="A1:F4" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:F4" xr:uid="{B0523719-AE34-4EA3-86AA-5E5ABFE60D80}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3BB8C69C-D794-4586-A1F1-5CA680CDF5A8}" name="NO"/>
-    <tableColumn id="2" xr3:uid="{EDC9F5BC-AC9B-41A5-BE91-F9AAD585AAFC}" name="任务项" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{75583D30-C1C4-4FAB-A156-E53C199D8522}" name="时长(页)" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{E1FEB4FF-EA8D-406A-BCBB-6BAA8BA8B7B7}" name="开始时间" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{5CF76904-FC73-4B9A-B625-11BB0803FDF9}" name="结束时间" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{EDC9F5BC-AC9B-41A5-BE91-F9AAD585AAFC}" name="任务项" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{75583D30-C1C4-4FAB-A156-E53C199D8522}" name="时长(页)" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{E1FEB4FF-EA8D-406A-BCBB-6BAA8BA8B7B7}" name="开始时间" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{5CF76904-FC73-4B9A-B625-11BB0803FDF9}" name="结束时间" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{5944819B-7B84-43A7-AFE4-E0514D9E844C}" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -467,15 +597,30 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{51DFE0C6-45DE-4C48-8BB7-08ED9591B511}" name="表1_45" displayName="表1_45" ref="A1:F5" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{51DFE0C6-45DE-4C48-8BB7-08ED9591B511}" name="表1_45" displayName="表1_45" ref="A1:F5" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:F5" xr:uid="{6771B110-0F0E-4035-96B1-3BE85C7F19D3}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4BE5476C-A082-42B3-85EF-36D4162A8236}" name="NO"/>
-    <tableColumn id="2" xr3:uid="{CA1CE17F-99E2-4CEC-91BC-81D2726C39B5}" name="任务项" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{34B16FC8-7D02-4CB5-8B8F-26761E345343}" name="时长(页)" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{AFEDB53D-159E-4E52-B555-3C6C005A10F6}" name="开始时间" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{C8137602-E92D-4C74-9AB3-EE540B0A1914}" name="结束时间" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{CA1CE17F-99E2-4CEC-91BC-81D2726C39B5}" name="任务项" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{34B16FC8-7D02-4CB5-8B8F-26761E345343}" name="时长(页)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{AFEDB53D-159E-4E52-B555-3C6C005A10F6}" name="开始时间" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{C8137602-E92D-4C74-9AB3-EE540B0A1914}" name="结束时间" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{60A91B2A-AAD2-4F03-80E6-0D908C33F9B3}" name="备注"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6170E41-78B9-4B41-9C20-17D2EE76D54F}" name="表2" displayName="表2" ref="A1:F11" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:F11" xr:uid="{306A94E6-B981-4F12-89C2-38F45ADE38CF}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{02FA134E-4EE3-456E-AE7F-DE12FABBA6EF}" name="NO" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{DB5DA9FD-000E-48F4-9582-82311D546D39}" name="任务项"/>
+    <tableColumn id="3" xr3:uid="{737A3EEC-81A9-4D82-8DDC-26A0F773F1DA}" name="时长(分钟)" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{65122A67-1943-4D0C-B44B-DCAA9A7DE378}" name="开始时间" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{50084998-C2B3-459E-A185-D51DC874A982}" name="结束时间"/>
+    <tableColumn id="5" xr3:uid="{1AF46B94-A650-4E1A-80C0-C45BB36B23F5}" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -748,11 +893,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -767,40 +912,40 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F24"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -816,7 +961,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -832,7 +977,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -850,7 +995,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -867,7 +1012,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -884,7 +1029,7 @@
         <v>43975</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -901,7 +1046,7 @@
         <v>43979</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -918,7 +1063,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -935,7 +1080,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -952,32 +1097,32 @@
         <v>44002</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+    <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="10">
         <v>85</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>44003</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>44012</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="9">
         <v>67</v>
@@ -989,15 +1134,15 @@
         <v>44017</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="9">
         <v>88</v>
@@ -1009,12 +1154,12 @@
         <v>44024</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>15</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9">
         <v>62</v>
@@ -1026,15 +1171,15 @@
         <v>44029</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>18</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="9">
         <v>280</v>
@@ -1046,15 +1191,15 @@
         <v>44043</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>19</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="9">
         <v>110</v>
@@ -1064,12 +1209,12 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>20</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="9">
         <v>80</v>
@@ -1077,12 +1222,12 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>21</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="9">
         <v>27</v>
@@ -1090,12 +1235,12 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>22</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="9">
         <v>45</v>
@@ -1103,12 +1248,12 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>23</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="9">
         <v>140</v>
@@ -1116,15 +1261,15 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>24</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="9">
         <v>30</v>
@@ -1132,12 +1277,12 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>25</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="9">
         <v>140</v>
@@ -1145,12 +1290,12 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>26</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="9">
         <v>65</v>
@@ -1160,12 +1305,12 @@
         <v>44074</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>27</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="9">
         <v>470</v>
@@ -1174,7 +1319,7 @@
         <v>44075</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1188,211 +1333,293 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998D22ED-3982-44C1-AB93-8B6E479E1499}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D5BD79-56DE-49BB-80DE-8DE71B69DE5A}">
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.75" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="B2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="15">
+        <v>43996</v>
+      </c>
+      <c r="D2" s="15">
+        <v>43998</v>
+      </c>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="11">
-        <v>43960</v>
-      </c>
-      <c r="E3" s="11">
-        <v>43960</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="B3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="13">
+        <v>43999</v>
+      </c>
+      <c r="D3" s="13">
+        <v>44001</v>
+      </c>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="3">
-        <v>92</v>
-      </c>
-      <c r="D4" s="11">
-        <v>43961</v>
-      </c>
-      <c r="E4" s="11">
-        <v>43964</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="B4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="13">
+        <v>44002</v>
+      </c>
+      <c r="D4" s="13">
+        <v>44004</v>
+      </c>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="13">
+        <v>44005</v>
+      </c>
+      <c r="D5" s="13">
+        <v>44007</v>
+      </c>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="114" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="13">
+        <v>44008</v>
+      </c>
+      <c r="D6" s="13">
+        <v>44010</v>
+      </c>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="13">
+        <v>44011</v>
+      </c>
+      <c r="D7" s="13">
+        <v>44013</v>
+      </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="13">
+        <v>44014</v>
+      </c>
+      <c r="D8" s="13">
+        <v>44016</v>
+      </c>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="13">
+        <v>44017</v>
+      </c>
+      <c r="D9" s="13">
+        <v>44019</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="13">
+        <v>44020</v>
+      </c>
+      <c r="D10" s="13">
+        <v>44022</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="13">
+        <v>44023</v>
+      </c>
+      <c r="D11" s="13">
+        <v>44025</v>
+      </c>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="13">
+        <v>44026</v>
+      </c>
+      <c r="D12" s="13">
+        <v>44028</v>
+      </c>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="11">
-        <v>43965</v>
-      </c>
-      <c r="E5" s="11">
-        <v>43968</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="3">
-        <v>58</v>
-      </c>
-      <c r="D6" s="11">
-        <v>43969</v>
-      </c>
-      <c r="E6" s="11">
-        <v>43972</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="3">
-        <v>52</v>
-      </c>
-      <c r="D7" s="11">
-        <v>43973</v>
-      </c>
-      <c r="E7" s="11">
-        <v>43976</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="3">
-        <v>85</v>
-      </c>
-      <c r="D8" s="11">
-        <v>43977</v>
-      </c>
-      <c r="E8" s="11">
-        <v>43980</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="3">
-        <v>72</v>
-      </c>
-      <c r="D9" s="11">
-        <v>43981</v>
-      </c>
-      <c r="E9" s="11">
-        <v>43984</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="3">
-        <v>63</v>
-      </c>
-      <c r="D10" s="11">
-        <v>43985</v>
-      </c>
-      <c r="E10" s="11">
-        <v>43988</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="3">
-        <v>75</v>
-      </c>
-      <c r="D11" s="11">
-        <v>43989</v>
-      </c>
-      <c r="E11" s="11">
-        <v>43992</v>
+      <c r="C13" s="13">
+        <v>44029</v>
+      </c>
+      <c r="D13" s="13">
+        <v>44031</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="13">
+        <v>44032</v>
+      </c>
+      <c r="D14" s="13">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="13">
+        <v>44035</v>
+      </c>
+      <c r="D15" s="13">
+        <v>44037</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="13">
+        <v>44038</v>
+      </c>
+      <c r="D16" s="13">
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="13">
+        <v>44041</v>
+      </c>
+      <c r="D17" s="13">
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="13">
+        <v>44044</v>
+      </c>
+      <c r="D18" s="13">
+        <v>44046</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -1407,40 +1634,40 @@
       <selection activeCell="F4" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="9">
         <v>36</v>
@@ -1452,12 +1679,12 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="9">
         <v>56</v>
@@ -1469,12 +1696,12 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="9">
         <v>85</v>
@@ -1503,39 +1730,39 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="6">
@@ -1546,12 +1773,12 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="6">
@@ -1561,27 +1788,27 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="8">
         <v>43993</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="8">
@@ -1608,7 +1835,7 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1623,7 +1850,7 @@
       <selection activeCell="L33" sqref="L33:L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1638,9 +1865,221 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998D22ED-3982-44C1-AB93-8B6E479E1499}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="11">
+        <v>43960</v>
+      </c>
+      <c r="E3" s="11">
+        <v>43960</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3">
+        <v>92</v>
+      </c>
+      <c r="D4" s="11">
+        <v>43961</v>
+      </c>
+      <c r="E4" s="11">
+        <v>43964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3">
+        <v>65</v>
+      </c>
+      <c r="D5" s="11">
+        <v>43965</v>
+      </c>
+      <c r="E5" s="11">
+        <v>43968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3">
+        <v>58</v>
+      </c>
+      <c r="D6" s="11">
+        <v>43969</v>
+      </c>
+      <c r="E6" s="11">
+        <v>43972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3">
+        <v>52</v>
+      </c>
+      <c r="D7" s="11">
+        <v>43973</v>
+      </c>
+      <c r="E7" s="11">
+        <v>43976</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3">
+        <v>85</v>
+      </c>
+      <c r="D8" s="11">
+        <v>43977</v>
+      </c>
+      <c r="E8" s="11">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3">
+        <v>72</v>
+      </c>
+      <c r="D9" s="11">
+        <v>43981</v>
+      </c>
+      <c r="E9" s="11">
+        <v>43984</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3">
+        <v>63</v>
+      </c>
+      <c r="D10" s="11">
+        <v>43985</v>
+      </c>
+      <c r="E10" s="11">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3">
+        <v>75</v>
+      </c>
+      <c r="D11" s="11">
+        <v>43989</v>
+      </c>
+      <c r="E11" s="11">
+        <v>43992</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B26007-4087-46C4-A0F4-4899D9F07D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B357616B-AEFA-4B78-9134-E1165C69A630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="英语" sheetId="13" r:id="rId1"/>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B64D650-92A1-4AEC-9E38-2C44AED4851B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1336,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D5BD79-56DE-49BB-80DE-8DE71B69DE5A}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1382,16 +1382,16 @@
       <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="15">
         <v>43999</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="15">
         <v>44001</v>
       </c>
       <c r="E3" s="12"/>

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B357616B-AEFA-4B78-9134-E1165C69A630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B030BC-8925-41DA-AD74-1E0EC82B145D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -270,12 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bean、
-PostConstruct、
-PreDestory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BeanPostProcessor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,6 +355,10 @@
     <t>前序遍历、查找
 中序遍历、查找
 后序遍历、查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean的生命周期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1114,7 +1112,7 @@
         <v>44012</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1337,7 +1335,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1396,27 +1394,27 @@
       </c>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="B4" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="15">
         <v>44002</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="15">
         <v>44004</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="13">
         <v>44005</v>
@@ -1431,7 +1429,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="13">
         <v>44008</v>
@@ -1446,7 +1444,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="13">
         <v>44011</v>
@@ -1461,7 +1459,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="13">
         <v>44014</v>
@@ -1476,7 +1474,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="13">
         <v>44017</v>
@@ -1491,7 +1489,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="13">
         <v>44020</v>
@@ -1506,7 +1504,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="13">
         <v>44023</v>
@@ -1521,7 +1519,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="13">
         <v>44026</v>
@@ -1536,7 +1534,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="13">
         <v>44029</v>
@@ -1550,7 +1548,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="13">
         <v>44032</v>
@@ -1564,7 +1562,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="13">
         <v>44035</v>
@@ -1579,7 +1577,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="13">
         <v>44038</v>
@@ -1593,7 +1591,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="13">
         <v>44041</v>
@@ -1607,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="13">
         <v>44044</v>

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B030BC-8925-41DA-AD74-1E0EC82B145D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FBB1C9-E418-4F0D-82B5-77DD0230734E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,7 +1335,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1410,19 +1410,19 @@
       <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="15">
         <v>44005</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="15">
         <v>44007</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" ht="114" x14ac:dyDescent="0.2">
       <c r="A6" s="12">

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FBB1C9-E418-4F0D-82B5-77DD0230734E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D41AD21-EEBF-4CE9-92C5-046407BEA0AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="英语" sheetId="13" r:id="rId1"/>
@@ -274,91 +274,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Value、
+    <t>EnableAspectjProxy
+AnnotationAwareAspectjProxyCreator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建AOP代理
+获取拦截器链
+链式调用通知方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声明式事务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BeanFactoryPostProcessor
+BeanDefinationRegisterPostProcessor
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplicationListener
+EventListner
+SmartInitializingSingleton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BeanFactory预准备
+执行BeanFactoryPostProcessor
+注册BeanPostProcesoor
+初始化MessageResource
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化事件派发器、监听器
+创建Bean准备
+创建Bean完成
+容器创建完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servlet3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servlet3.0与spring整合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springmvc整合
+定制与接管Springmvc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servlet3.0异步请求
+返回Callable
+返回deferredResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前序遍历、查找
+中序遍历、查找
+后序遍历、查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean的生命周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value、
 PropertySource、
 Autowired、
 Qualifier
 Primary
 Resource
 Inject
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方法、构造器自动装配
-Aware注入原理
-Profile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnableAspectjProxy
-AnnotationAwareAspectjProxyCreator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建AOP代理
-获取拦截器链
-链式调用通知方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声明式事务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">BeanFactoryPostProcessor
-BeanDefinationRegisterPostProcessor
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApplicationListener
-EventListner
-SmartInitializingSingleton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">BeanFactory预准备
-执行BeanFactoryPostProcessor
-注册BeanPostProcesoor
-初始化MessageResource
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化事件派发器、监听器
-创建Bean准备
-创建Bean完成
-容器创建完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Servlet3.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Servlet3.0与spring整合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>springmvc整合
-定制与接管Springmvc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Servlet3.0异步请求
-返回Callable
-返回deferredResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前序遍历、查找
-中序遍历、查找
-后序遍历、查找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bean的生命周期</t>
+方法、构造器自动装配
+Aware注入原理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -891,9 +890,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -909,21 +908,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B64D650-92A1-4AEC-9E38-2C44AED4851B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:E12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -943,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -959,7 +958,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -975,7 +974,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -993,7 +992,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1010,7 +1009,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1027,7 +1026,7 @@
         <v>43975</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1044,7 +1043,7 @@
         <v>43979</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1061,7 +1060,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1078,7 +1077,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1095,7 +1094,7 @@
         <v>44002</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1112,47 +1111,48 @@
         <v>44012</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="10">
         <v>67</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>44013</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>44017</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>13</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="10">
         <v>88</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>44018</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>44024</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>15</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>18</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>19</v>
       </c>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>20</v>
       </c>
@@ -1220,7 +1220,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>21</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>22</v>
       </c>
@@ -1246,7 +1246,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>23</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>24</v>
       </c>
@@ -1275,7 +1275,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>25</v>
       </c>
@@ -1288,7 +1288,7 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>26</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>44074</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>27</v>
       </c>
@@ -1334,20 +1334,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D5BD79-56DE-49BB-80DE-8DE71B69DE5A}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.75" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1394,12 +1394,12 @@
       </c>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" s="15">
         <v>44002</v>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1424,27 +1424,27 @@
       </c>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:5" ht="114" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+    <row r="6" spans="1:5" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="B6" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="15">
         <v>44008</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="15">
         <v>44010</v>
       </c>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C7" s="13">
         <v>44011</v>
@@ -1454,12 +1454,12 @@
       </c>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="13">
         <v>44014</v>
@@ -1469,12 +1469,12 @@
       </c>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="13">
         <v>44017</v>
@@ -1484,12 +1484,12 @@
       </c>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="13">
         <v>44020</v>
@@ -1499,12 +1499,12 @@
       </c>
       <c r="E10" s="12"/>
     </row>
-    <row r="11" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="13">
         <v>44023</v>
@@ -1514,12 +1514,12 @@
       </c>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" s="13">
         <v>44026</v>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="13">
         <v>44029</v>
@@ -1543,12 +1543,12 @@
         <v>44031</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" s="13">
         <v>44032</v>
@@ -1557,12 +1557,12 @@
         <v>44034</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="13">
         <v>44035</v>
@@ -1572,12 +1572,12 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" s="13">
         <v>44038</v>
@@ -1586,12 +1586,12 @@
         <v>44040</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" s="13">
         <v>44041</v>
@@ -1600,12 +1600,12 @@
         <v>44043</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C18" s="13">
         <v>44044</v>
@@ -1632,15 +1632,15 @@
       <selection activeCell="F4" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1728,14 +1728,14 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1833,7 +1833,7 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1848,7 +1848,7 @@
       <selection activeCell="L33" sqref="L33:L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1863,7 +1863,7 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1878,16 +1878,16 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1919,7 +1919,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>43968</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>43972</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D41AD21-EEBF-4CE9-92C5-046407BEA0AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5B7446-869A-474B-8C31-EE556BEE5D9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,7 +413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -460,6 +460,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -908,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B64D650-92A1-4AEC-9E38-2C44AED4851B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1153,22 +1159,22 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="10">
         <v>15</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="10">
         <v>62</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>44025</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="6">
         <v>44029</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1335,7 +1341,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1440,31 +1446,31 @@
       <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="18">
         <v>44011</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="18">
         <v>44013</v>
       </c>
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="15">
         <v>44014</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="15">
         <v>44016</v>
       </c>
       <c r="E8" s="12"/>

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5B7446-869A-474B-8C31-EE556BEE5D9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8F7A5D-8ED0-4F7E-8C96-202844239EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="英语" sheetId="13" r:id="rId1"/>
@@ -914,7 +914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B64D650-92A1-4AEC-9E38-2C44AED4851B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1340,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D5BD79-56DE-49BB-80DE-8DE71B69DE5A}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1476,16 +1476,16 @@
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="15">
         <v>44017</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="15">
         <v>44019</v>
       </c>
       <c r="E9" s="12"/>

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8F7A5D-8ED0-4F7E-8C96-202844239EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2032E2D8-305B-4E79-B789-852889E56D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="英语" sheetId="13" r:id="rId1"/>
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B64D650-92A1-4AEC-9E38-2C44AED4851B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1179,22 +1179,22 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="10">
         <v>18</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="10">
         <v>280</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>44030</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <v>44043</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1211,7 +1211,9 @@
       <c r="D16" s="8">
         <v>44044</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="8">
+        <v>44046</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
@@ -1223,8 +1225,12 @@
       <c r="C17" s="9">
         <v>80</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="D17" s="8">
+        <v>44047</v>
+      </c>
+      <c r="E17" s="8">
+        <v>44049</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
@@ -1236,8 +1242,12 @@
       <c r="C18" s="9">
         <v>27</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="D18" s="8">
+        <v>44050</v>
+      </c>
+      <c r="E18" s="8">
+        <v>44051</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
@@ -1249,8 +1259,12 @@
       <c r="C19" s="9">
         <v>45</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="D19" s="8">
+        <v>44052</v>
+      </c>
+      <c r="E19" s="8">
+        <v>44054</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
@@ -1262,8 +1276,12 @@
       <c r="C20" s="9">
         <v>140</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="D20" s="8">
+        <v>44055</v>
+      </c>
+      <c r="E20" s="8">
+        <v>44061</v>
+      </c>
       <c r="F20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1278,8 +1296,12 @@
       <c r="C21" s="9">
         <v>30</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="D21" s="8">
+        <v>44062</v>
+      </c>
+      <c r="E21" s="8">
+        <v>44064</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
@@ -1291,8 +1313,12 @@
       <c r="C22" s="9">
         <v>140</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="D22" s="8">
+        <v>44065</v>
+      </c>
+      <c r="E22" s="8">
+        <v>44070</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
@@ -1304,7 +1330,9 @@
       <c r="C23" s="9">
         <v>65</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="8">
+        <v>44071</v>
+      </c>
       <c r="E23" s="8">
         <v>44074</v>
       </c>
@@ -1340,7 +1368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D5BD79-56DE-49BB-80DE-8DE71B69DE5A}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2032E2D8-305B-4E79-B789-852889E56D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56941CEF-21C0-4CED-A4BC-D708CB3F91A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="英语" sheetId="13" r:id="rId1"/>
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B64D650-92A1-4AEC-9E38-2C44AED4851B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1368,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D5BD79-56DE-49BB-80DE-8DE71B69DE5A}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1519,31 +1519,31 @@
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="15">
         <v>44020</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="15">
         <v>44022</v>
       </c>
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="15">
         <v>44023</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="15">
         <v>44025</v>
       </c>
       <c r="E11" s="12"/>

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56941CEF-21C0-4CED-A4BC-D708CB3F91A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDD47A4-D505-4ADA-AEF6-A27763BD7789}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="英语" sheetId="13" r:id="rId1"/>
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B64D650-92A1-4AEC-9E38-2C44AED4851B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:F16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1199,21 +1199,22 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="10">
         <v>19</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="10">
         <v>110</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>44044</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="6">
         <v>44046</v>
       </c>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
@@ -1368,7 +1369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D5BD79-56DE-49BB-80DE-8DE71B69DE5A}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDD47A4-D505-4ADA-AEF6-A27763BD7789}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8C92CB-C524-41B2-B288-06AF45DA8249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -915,7 +915,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1217,21 +1217,22 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="10">
         <v>20</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="10">
         <v>80</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>44047</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <v>44049</v>
       </c>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9">

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8C92CB-C524-41B2-B288-06AF45DA8249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11D5ED6-4435-4BD3-9581-7BA42F19EDC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10176" yWindow="1200" windowWidth="10992" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="英语" sheetId="13" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,6 +358,42 @@
 Inject
 方法、构造器自动装配
 Aware注入原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring与springboot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springboot2入门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动装配原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原理解析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +508,22 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="解释性文本" xfId="1" builtinId="53"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="28">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -556,14 +607,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1BFC520-1BC9-4D48-866D-F7FB0477E566}" name="表1" displayName="表1" ref="A1:F24" totalsRowShown="0" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1BFC520-1BC9-4D48-866D-F7FB0477E566}" name="表1" displayName="表1" ref="A1:F24" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="A1:F24" xr:uid="{38A52E58-7077-40ED-A0A4-52DE944EDB68}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{42E10505-0471-48CC-8365-358BDC44009F}" name="NO"/>
-    <tableColumn id="2" xr3:uid="{7137E419-923A-430E-B5FD-B830059637FF}" name="任务项" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{071DCAFD-0806-44A2-84D5-73C0A41D7E80}" name="时长(分钟)" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{BAD42728-0956-4D88-BB40-84294B129381}" name="开始时间" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{DCF98B81-4D25-4835-B7A2-FA352CD8BD8A}" name="结束时间" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{7137E419-923A-430E-B5FD-B830059637FF}" name="任务项" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{071DCAFD-0806-44A2-84D5-73C0A41D7E80}" name="时长(分钟)" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{BAD42728-0956-4D88-BB40-84294B129381}" name="开始时间" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{DCF98B81-4D25-4835-B7A2-FA352CD8BD8A}" name="结束时间" dataDxfId="23"/>
     <tableColumn id="4" xr3:uid="{8A753512-5052-4D27-8CED-674A14DDF9F3}" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -571,13 +622,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BD46859F-9AC0-4C6A-B240-10DC847CDA1A}" name="表1_6" displayName="表1_6" ref="A1:E18" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BD46859F-9AC0-4C6A-B240-10DC847CDA1A}" name="表1_6" displayName="表1_6" ref="A1:E18" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="A1:E18" xr:uid="{C9975E5E-FEFC-4622-AC33-8BC15929292E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{25951C07-3EBE-4620-B1DF-9EAA377F87DC}" name="NO"/>
-    <tableColumn id="2" xr3:uid="{D05E0DEF-2257-4B4A-A120-5B4E9A35FE17}" name="任务项" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{45D71652-2326-42E1-A427-B691608801C0}" name="开始时间" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{05277FD2-2013-41A4-8E46-82178EDD01E3}" name="结束时间" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{D05E0DEF-2257-4B4A-A120-5B4E9A35FE17}" name="任务项" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{45D71652-2326-42E1-A427-B691608801C0}" name="开始时间" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{05277FD2-2013-41A4-8E46-82178EDD01E3}" name="结束时间" dataDxfId="19"/>
     <tableColumn id="4" xr3:uid="{C4D10796-6420-4AE0-B8DE-E2FBF8861037}" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -585,14 +636,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3076E753-B171-4F47-B639-3BA3103C0D5C}" name="表1_4" displayName="表1_4" ref="A1:F4" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3076E753-B171-4F47-B639-3BA3103C0D5C}" name="表1_4" displayName="表1_4" ref="A1:F4" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="A1:F4" xr:uid="{B0523719-AE34-4EA3-86AA-5E5ABFE60D80}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3BB8C69C-D794-4586-A1F1-5CA680CDF5A8}" name="NO"/>
-    <tableColumn id="2" xr3:uid="{EDC9F5BC-AC9B-41A5-BE91-F9AAD585AAFC}" name="任务项" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{75583D30-C1C4-4FAB-A156-E53C199D8522}" name="时长(页)" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{E1FEB4FF-EA8D-406A-BCBB-6BAA8BA8B7B7}" name="开始时间" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{5CF76904-FC73-4B9A-B625-11BB0803FDF9}" name="结束时间" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{EDC9F5BC-AC9B-41A5-BE91-F9AAD585AAFC}" name="任务项" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{75583D30-C1C4-4FAB-A156-E53C199D8522}" name="时长(页)" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{E1FEB4FF-EA8D-406A-BCBB-6BAA8BA8B7B7}" name="开始时间" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{5CF76904-FC73-4B9A-B625-11BB0803FDF9}" name="结束时间" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{5944819B-7B84-43A7-AFE4-E0514D9E844C}" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -600,14 +651,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{51DFE0C6-45DE-4C48-8BB7-08ED9591B511}" name="表1_45" displayName="表1_45" ref="A1:F5" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{51DFE0C6-45DE-4C48-8BB7-08ED9591B511}" name="表1_45" displayName="表1_45" ref="A1:F5" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:F5" xr:uid="{6771B110-0F0E-4035-96B1-3BE85C7F19D3}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4BE5476C-A082-42B3-85EF-36D4162A8236}" name="NO"/>
-    <tableColumn id="2" xr3:uid="{CA1CE17F-99E2-4CEC-91BC-81D2726C39B5}" name="任务项" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{34B16FC8-7D02-4CB5-8B8F-26761E345343}" name="时长(页)" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{AFEDB53D-159E-4E52-B555-3C6C005A10F6}" name="开始时间" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{C8137602-E92D-4C74-9AB3-EE540B0A1914}" name="结束时间" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{CA1CE17F-99E2-4CEC-91BC-81D2726C39B5}" name="任务项" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{34B16FC8-7D02-4CB5-8B8F-26761E345343}" name="时长(页)" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{AFEDB53D-159E-4E52-B555-3C6C005A10F6}" name="开始时间" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{C8137602-E92D-4C74-9AB3-EE540B0A1914}" name="结束时间" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{60A91B2A-AAD2-4F03-80E6-0D908C33F9B3}" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -615,13 +666,28 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6170E41-78B9-4B41-9C20-17D2EE76D54F}" name="表2" displayName="表2" ref="A1:F11" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{851693B5-B6EA-4190-A073-798C54FB36EA}" name="表1_47" displayName="表1_47" ref="A1:F10" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:F10" xr:uid="{5EFAAE8F-15EC-442B-897B-7D7FEDB82952}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{C56F4FA4-1A39-4A50-BAE8-646DA9A74C81}" name="NO"/>
+    <tableColumn id="2" xr3:uid="{5851ACF7-CC23-4025-8C28-1349C1C5F414}" name="任务项" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{1A54CBA3-AE5C-4B3B-9EB2-3AF39235F6B2}" name="时长(页)" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{8FB2E7C6-9AD7-4042-B6DB-5B44D15A4265}" name="开始时间" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{7D5826B2-3040-417F-87BA-636DA42FB972}" name="结束时间" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{D9F16B73-9A81-4677-A149-2906E2263999}" name="备注"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6170E41-78B9-4B41-9C20-17D2EE76D54F}" name="表2" displayName="表2" ref="A1:F11" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:F11" xr:uid="{306A94E6-B981-4F12-89C2-38F45ADE38CF}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{02FA134E-4EE3-456E-AE7F-DE12FABBA6EF}" name="NO" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{02FA134E-4EE3-456E-AE7F-DE12FABBA6EF}" name="NO" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{DB5DA9FD-000E-48F4-9582-82311D546D39}" name="任务项"/>
-    <tableColumn id="3" xr3:uid="{737A3EEC-81A9-4D82-8DDC-26A0F773F1DA}" name="时长(分钟)" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{65122A67-1943-4D0C-B44B-DCAA9A7DE378}" name="开始时间" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{737A3EEC-81A9-4D82-8DDC-26A0F773F1DA}" name="时长(分钟)" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{65122A67-1943-4D0C-B44B-DCAA9A7DE378}" name="开始时间" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{50084998-C2B3-459E-A185-D51DC874A982}" name="结束时间"/>
     <tableColumn id="5" xr3:uid="{1AF46B94-A650-4E1A-80C0-C45BB36B23F5}" name="备注"/>
   </tableColumns>
@@ -914,7 +980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B64D650-92A1-4AEC-9E38-2C44AED4851B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -1370,7 +1436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D5BD79-56DE-49BB-80DE-8DE71B69DE5A}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -1665,7 +1731,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="A1:F4"/>
+      <selection activeCell="H15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1863,16 +1929,182 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313B7CA0-E9D2-4375-98E8-E6190D227FAF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8">
+        <v>44191</v>
+      </c>
+      <c r="E2" s="8">
+        <v>44191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8">
+        <v>44191</v>
+      </c>
+      <c r="E3" s="8">
+        <v>44191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8">
+        <v>44192</v>
+      </c>
+      <c r="E4" s="8">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8">
+        <v>44197</v>
+      </c>
+      <c r="E5" s="8">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8">
+        <v>44198</v>
+      </c>
+      <c r="E6" s="8">
+        <v>44201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8">
+        <v>44202</v>
+      </c>
+      <c r="E7" s="8">
+        <v>44205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8">
+        <v>44206</v>
+      </c>
+      <c r="E8" s="8">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8">
+        <v>44210</v>
+      </c>
+      <c r="E9" s="8">
+        <v>44213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8">
+        <v>44214</v>
+      </c>
+      <c r="E10" s="8">
+        <v>44217</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\study\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11D5ED6-4435-4BD3-9581-7BA42F19EDC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B477AD-DD74-4424-9D69-C4F6F6D057DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10176" yWindow="1200" windowWidth="10992" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="英语" sheetId="13" r:id="rId1"/>
@@ -510,6 +510,18 @@
   </cellStyles>
   <dxfs count="28">
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -520,18 +532,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -666,14 +666,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{851693B5-B6EA-4190-A073-798C54FB36EA}" name="表1_47" displayName="表1_47" ref="A1:F10" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{851693B5-B6EA-4190-A073-798C54FB36EA}" name="表1_47" displayName="表1_47" ref="A1:F10" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:F10" xr:uid="{5EFAAE8F-15EC-442B-897B-7D7FEDB82952}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{C56F4FA4-1A39-4A50-BAE8-646DA9A74C81}" name="NO"/>
-    <tableColumn id="2" xr3:uid="{5851ACF7-CC23-4025-8C28-1349C1C5F414}" name="任务项" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{1A54CBA3-AE5C-4B3B-9EB2-3AF39235F6B2}" name="时长(页)" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{8FB2E7C6-9AD7-4042-B6DB-5B44D15A4265}" name="开始时间" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{7D5826B2-3040-417F-87BA-636DA42FB972}" name="结束时间" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{5851ACF7-CC23-4025-8C28-1349C1C5F414}" name="任务项" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{1A54CBA3-AE5C-4B3B-9EB2-3AF39235F6B2}" name="时长(页)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{8FB2E7C6-9AD7-4042-B6DB-5B44D15A4265}" name="开始时间" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{7D5826B2-3040-417F-87BA-636DA42FB972}" name="结束时间" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{D9F16B73-9A81-4677-A149-2906E2263999}" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -681,13 +681,13 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6170E41-78B9-4B41-9C20-17D2EE76D54F}" name="表2" displayName="表2" ref="A1:F11" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6170E41-78B9-4B41-9C20-17D2EE76D54F}" name="表2" displayName="表2" ref="A1:F11" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:F11" xr:uid="{306A94E6-B981-4F12-89C2-38F45ADE38CF}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{02FA134E-4EE3-456E-AE7F-DE12FABBA6EF}" name="NO" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{02FA134E-4EE3-456E-AE7F-DE12FABBA6EF}" name="NO" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{DB5DA9FD-000E-48F4-9582-82311D546D39}" name="任务项"/>
-    <tableColumn id="3" xr3:uid="{737A3EEC-81A9-4D82-8DDC-26A0F773F1DA}" name="时长(分钟)" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{65122A67-1943-4D0C-B44B-DCAA9A7DE378}" name="开始时间" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{737A3EEC-81A9-4D82-8DDC-26A0F773F1DA}" name="时长(分钟)" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{65122A67-1943-4D0C-B44B-DCAA9A7DE378}" name="开始时间" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{50084998-C2B3-459E-A185-D51DC874A982}" name="结束时间"/>
     <tableColumn id="5" xr3:uid="{1AF46B94-A650-4E1A-80C0-C45BB36B23F5}" name="备注"/>
   </tableColumns>
@@ -1932,7 +1932,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E10"/>
+      <selection activeCell="B6" sqref="B6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1967,14 +1967,14 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8">
+      <c r="C2" s="10"/>
+      <c r="D2" s="6">
         <v>44191</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>44191</v>
       </c>
     </row>
@@ -1982,14 +1982,14 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8">
+      <c r="C3" s="10"/>
+      <c r="D3" s="6">
         <v>44191</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>44191</v>
       </c>
     </row>
@@ -1997,14 +1997,14 @@
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8">
+      <c r="C4" s="10"/>
+      <c r="D4" s="6">
         <v>44192</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>44196</v>
       </c>
     </row>
@@ -2012,14 +2012,14 @@
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8">
+      <c r="C5" s="5"/>
+      <c r="D5" s="6">
         <v>44197</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>44197</v>
       </c>
     </row>
@@ -2027,14 +2027,14 @@
       <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8">
+      <c r="C6" s="5"/>
+      <c r="D6" s="6">
         <v>44198</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>44201</v>
       </c>
     </row>
@@ -2042,14 +2042,14 @@
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8">
+      <c r="C7" s="5"/>
+      <c r="D7" s="6">
         <v>44202</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>44205</v>
       </c>
     </row>
